--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_4_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_4_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16554.83669789038</v>
+        <v>993290.2018734229</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16554.83669789038</v>
+        <v>993290.2018734229</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111866741.785866</v>
+        <v>44443557.11175798</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10099.90845700283</v>
+        <v>980999.3816183413</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19807.14649199221</v>
+        <v>1894047.735859472</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29514.38452698159</v>
+        <v>2807096.090100604</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40234.03158169692</v>
+        <v>3665287.246465409</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50953.67863641222</v>
+        <v>4523478.402830214</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60768.13869886186</v>
+        <v>5436526.757071343</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70582.59876131151</v>
+        <v>6349575.111312471</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80397.05882376117</v>
+        <v>7262623.465553599</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>91116.70587847651</v>
+        <v>8120814.621918399</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101375.9436812504</v>
+        <v>8999757.534470534</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111190.4037437</v>
+        <v>9912805.888711665</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121004.8638061496</v>
+        <v>10825854.2429528</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130819.3238685993</v>
+        <v>11738902.59719394</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>141087.2980549933</v>
+        <v>12617431.02608608</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151806.9451097086</v>
+        <v>13475622.1824509</v>
       </c>
     </row>
   </sheetData>
